--- a/result_RFC.xlsx
+++ b/result_RFC.xlsx
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
